--- a/Datasets/Places/destination_1.xlsx
+++ b/Datasets/Places/destination_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dat\Code\Python\Project\Recomendation_system\Datasets\Places\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\6_Spring24\RES\Recommendation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278266D1-A6BE-44E0-9378-7784BD78F371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="30612" yWindow="984" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
   <si>
     <t>name</t>
   </si>
@@ -36,27 +37,15 @@
     <t>BÃI TẮM KỲ CO</t>
   </si>
   <si>
-    <t>Là một trong những địa điểm thu hút du khách du lịch nhất trong những năm gần đây,Kỳ Cođược ví như “thiên đường biển” của Bình Định. Nổi bật là dải cát trắng ôm trọn cung biển hình vầng trăng khuyết và những núi đá nhấp nhô hoang sơ, có những núi đá còn kết hợp với nhau tạo thành các hồ nước long lanh. Đến với Kỳ Co du khách sẽ được đắm mình trong làn nước trong vắt và xanh mát, hòa mình với khung cảnh thiên nhiên vừa hùng vĩ vừa lãng mạn nên thơ. Kỳ Co còn là địa điểm thích hợp để tổ chức các trò chơi cho nhóm, teambuilding ngoài trời. Hiện tại, Kỳ co còn phục vụ những dịch vụ biển đa dạng và những điểm để nghỉ ngơi chụp hình.</t>
-  </si>
-  <si>
     <t>ĐẢO HÒN KHÔ</t>
   </si>
   <si>
-    <t>Song song với Kỳ Co,Hòn Khôlà một trong những địa điểm lý tưởng để tắm và lặn ngắm san hô. Khung cảnh nới đây còn khá hoang sơ, nước ở Hòn Khô rất trong và sạch, có một số nơi những rặn san hô chỉ cách mặt nước từ 1-2m, rất thích hợp để lặn ngắm. Ở đây, còn có các hoạt động nhứ lướt mô tô nước, đi thuyền kayak. Một điểm đặc biệt ở Hòn Khô thu hút giới trẻ check-in là con đường gỗ trắng xuôi theo lưng núi cực đẹp. Ngoài ra không thể không nhắc đến con đường xuyên biển độc đáo đủ để làm nao lòng du khách ghé thăm.</t>
-  </si>
-  <si>
     <t>EO GIÓ</t>
   </si>
   <si>
-    <t>Có thể nóiEo giólà địa điểm hấp dẫn du khách check-in khi du lịch Quy Nhơn vì nơi đây có con đường ven biển đẹp đến ngỡ ngàng. Như đúng tên gọi của mình, Eo gió có địa hình khá độc đáo, được bao quanh bởi dãy núi đá tự nhiên tạo nên một vòng eo lộng gió với một mặt là núi một mặt là biển. Sau khi được khai thác lại, eo gió có thêm một con đường chạy dọc theo vòng eo này. Đường nằm ở lưng chừng núi, uốn mình theo độ cong lưng núi, được xây dựng chắc chắn với tay vịn gỗ đầy chất vintage vô cùng đẹp mắt, hệt như dải lụa mềm mại giữa thiên đường.</t>
-  </si>
-  <si>
     <t>CÙ LAO XANH</t>
   </si>
   <si>
-    <t>Cù Lao Xanhlà một mảng thiên nhiên tươi đẹp mà tạo hóa ban tặng cho mảnh đất võ Bình Định. Thường được gọi là “Hòn ngọc ngủ quên”, Cù Lao Xanh nằm giữa vùng biển mênh mông trong vắt, được bao phủ bởi những tán cây xanh ngát và bờ cát trắng mịn màng. Du khách sẽ cảm nhận được không khí trời đất, giản dị và tự nhiên khi đến với nơi đây.</t>
-  </si>
-  <si>
     <t>KHU DÃ NGOẠI TRUNG LƯƠNG</t>
   </si>
   <si>
@@ -66,25 +55,148 @@
     <t>CHÙA ÔNG NÚI</t>
   </si>
   <si>
-    <t>Chùa Ông Núi (hay còn gọi là chùa Linh Phong) là một địa điểm nổi tiếng với bức tược Phật ngồi trên đỉnh núi. Vì độ to lớn của bức tượng mà đi từ xa du khách đã có thể nhìn thấy nó, thoạt nhìn như một vị Phật ngồi giữa mây trời. Đến gần du khách sẽ được chiêm ngưỡng kĩ hơn sự kì công của bức tượng Phật trên đài sen này.</t>
-  </si>
-  <si>
     <t>THÁP BÁNH ÍT</t>
   </si>
   <si>
-    <t>Tháp Bánh Ítlà cụm tháp gồm 4 tòa tháp kết hợp với nhau, nằm trên một ngọn núi cách mặt nước biển 100m. Nhìn từ xa, các tòa tháp tựa hình dạng của chiếc bánh ít – một đặc sản của Bình Định. Nhiều người đánh giá Tháp Bánh Ít mang những nét kiến trúc phong phú và đa dạng nhất, nó là sự giao hòa đường nét và điêu khắc của nghệ thuật Chăm kết hợp với tính riêng của miền đất võ. Quần thể có một tháp chính cao tầm 20m ở trung tâm đồi và 3 tháp nhỏ xung quanh, mặt tháp hướng về phía Đông. Đường lên đồi là những bậc thang hệt như đang bước lên cổng trời. Đến với tháp Bánh Ít để cảm nhận được nét văn hóa đầy độc đáo.</t>
-  </si>
-  <si>
     <t>CHÙA THIÊN HƯNG</t>
   </si>
   <si>
     <t>Tuy không có lịch sử lâu đời nhưng Thiên Hưng là một ngôi chùa luôn được lòng du khách vì sự độc đáo của kiến trúc. Kiến trúc ngôi chùa toát lên sự uy nghiêm với phong cách xưa cũ, tỉ mỉ tới từng góc nhỏ. Chùa được bố trí hài hòa thành nhiều khu vực khác nhau, mỗi khu vực đều có ý nghĩa riêng biệt nhưng vẫn vô cùng hòa quyện với tổng thể. Chùa Thiên Hưng còn nổi tiếng với tháp chuông và là nơi lưu giữ Ngọc Xá Lợi của Đức Phật Thích Ca.</t>
   </si>
   <si>
+    <t>THIỀN VIỆN THIÊN HƯNG</t>
+  </si>
+  <si>
+    <t>Thiền viện Thiên Hưng là một khuôn viên bao bên ngoài chùa Ông Núi và cũng là một trong những điểm đặc sắc tạo nên tổng thể độc đáo tại nơi này. Không gian của Thiền viện Thiên Hưng được bao phủ bởi màu xanh mướt của những bãi cỏ kiến tạo công phu, trên đó là những con đường bằng đá tự nhiên. Tô đểm cho Thiền Viện là những cây cầu gỗ và những mái đình cong cong, những cánh cổng phong cách Á Đông và một mảng rừng trúc xanh ngắt.</t>
+  </si>
+  <si>
     <t>GHỀNH RÁNG – TIÊN SA</t>
   </si>
   <si>
-    <t>Cũ mà không cũ chính là những từ dành cho khu du lịch này. Dù đã đưa vào hoạt động khá lâu, nhưng đến nayGhềnh Ráng – Tiên Savẫn thu hút không ít khách du lịch bởi nét riêng của nó. Một số địa điểm nổi bật của khu du lịch này là Bãi tắm Hoàng Hậu (hay còn gọi là Bãi Trứng) với những khối đá to tròn độc đáo san sát nhau chạy dọc bờ biển xanh, ngôi mộ của thi sĩ Hàn Mạc Tử với những kỷ vật và câu chuyện về cuộc đời ông. Ngoài ra, Ghềnh ráng còn có những khu vực, khu chòi thích hợp để tổ chức picnic, khu trò chơi dân gian, nhà thờ trắng cực đẹp,… Có thể nói là có khá nhiều thứ để du khách có thể khám phá khi đến đây.</t>
+    <t>LÀNG PHONG QUY HÒA</t>
+  </si>
+  <si>
+    <t>Nếu như muốn tìm một nơi yên nình, thanh lặng để khép lại chuyến du lịch Quy Nhơn của mình thì Làng Phong Quy Hòa là lựa chọn tốt nhất. Chỉ cách trung tâm thành phố khoảng 7km, bạn sẽ không mất quá nhiều thời gian để di chuyển đến đây. Làng phong Quy Hòa là nơi thi sĩ nổi tiếng Hàn Mạc Từ đã ở và trị bệnh trong những năm cuối đời. Chính vì vậy, nới đây vẫn còn lưu giữ một số bút tích và hiện vật của ông.</t>
+  </si>
+  <si>
+    <t>THÁP ĐÔI</t>
+  </si>
+  <si>
+    <t>THÁP DƯƠNG LONG</t>
+  </si>
+  <si>
+    <t>Bên cạnh Tháp Bánh Ít hay Tháp Đôi thì Tháp Dương Long cũng là một quần thể tháp Chăm tại Bình Định còn được lưu giữ cho đến ngày nay. Đây là quần thể gồm 3 tháp nằm liền kề nhau là Tháp Bắc, Tháp Giữa và Tháp Nam, mang đậm đặc trưng của tháp Chăm Pa và bị ảnh hưởng rõ nét bởi nghệ thuật Khmer. Giống như hầu hết các thiết kế Tháp Chăm khác, Tháp Dương Long cũng quay mặt về hướng Đông, cửa tháp được tạo thành hình mũi lao với nhiều lớp chồng khít lên nhau, hoa văn chạm khắc chủ yếu là hình hoa và rắn. Nhìn vào Tháp, du khách sẽ có cảm giác vừa chân thực vừa huyền bí.</t>
+  </si>
+  <si>
+    <t>BẢO TÀNG QUANG TRUNG</t>
+  </si>
+  <si>
+    <t>KHU DU LỊCH HẦM HÔ</t>
+  </si>
+  <si>
+    <t>Tọa lạc giữa địa thế ngút ngàn cây xanh bao quanh, thắng cảnh Hầm Hô là một bức tranh hoang sơ, hùng vĩ làm say lòng biết bao du khách. Người ta nói đến với Hầm Hô là trở về với thiên nhiên, quả thật như vậy, mạch chính của Hầm Hô là đoạn sông dài 3km chạy dọc chân núi. Hai bên bờ là những cách rừng sinh thái tươi mát và những khối đá muôn hình kỳ thú, phía dưới là những loại cá đa dạng tạo nên bức vẽ hữu tình của non nước.</t>
+  </si>
+  <si>
+    <t>QUẢNG TRƯỜNG TRUNG TÂM</t>
+  </si>
+  <si>
+    <t>Đây là một địa điểm thích hợp cho những buổi chiều nhẹ nhàng khi muốn dạo quanh thành phố. Quảng trường Quy Nhơn một khoảng sân rộng và trống được lát đá nhằm phục vụ người dân nghỉ chân, dạo mát, trò chuyện và để tổ chức lễ hội, sự kiện vào các dịp đặc biệt. Buổi tối, tại quảng trường sẽ có các trò chơi như trượt patin, đi xe điện, xe xích lô cho các bé.</t>
+  </si>
+  <si>
+    <t>CAFE SURF BAR</t>
+  </si>
+  <si>
+    <t>HỒ SINH THÁI QUY NHƠN</t>
+  </si>
+  <si>
+    <t>Hồ sinh thái Quy Nhơn là một hồ nước nhân tạo quen thuộc với người dân thành phố. Đây là địa điểm thích hợp để du khách dạo mát vào sáng sớm hay những buổi chiều mát mẻ. Mặt hồ tựa như một tấm gương phản chiếu mây trời. Bao quanh hồ là đường dùng để đi bộ được lát gạch và trang trí bởi những giàn hoa giấy, hàng cây xanh nghiêng bóng mặt hồ, tiểu cảnh… Ngoài ra còn có các đình gỗ nhô ra mặt nước để nghỉ mát hay chụp ảnh. Vào buổi tối, khi thành phố lên đèn, Hồ Sinh Thái càng lung linh đầy màu sắc.</t>
+  </si>
+  <si>
+    <t>ĐỒI CÁT PHƯƠNG MAI</t>
+  </si>
+  <si>
+    <t>FLC SAFARI ZOO PARK</t>
+  </si>
+  <si>
+    <t>FLC Safari Zoo Park là công viên động vật hoang dã với quy mô lớn. Công viên có diện tích hơn 129 ha với gần 800 cá thể ở 35 loài như gấu, đà điểu, hươu sao, lạc đà, vượn, voọc, thiên nga đen, vịt vàng Tadorama… được bố trí thành từng khu vực ngăn cách nhau bởi những bãi cỏ và con đường đá xinh đẹp. Để tham quan toàn bộ công viên, sau khi mua vé vào cổng, du khách có thể lựa chọn đi xe điện, xe ngựa hoặc đi bộ. Tại mỗi khu vực đều có chú thích, giới thiệu rõ ràng về từng loài. Khách tham quan có thể cho thú ăn hay chụp ảnh. Kết thúc chuyến tham quan du khách có thể chụp hình lưu niệm tại cổng hoặc mua quà lưu niệm mang về.</t>
+  </si>
+  <si>
+    <t>FLC QUY NHƠN BEACH &amp; GOLF RESORT</t>
+  </si>
+  <si>
+    <t>CẦU THỊ NẠI</t>
+  </si>
+  <si>
+    <t>Đã từng là cây cầu vượt biển dài nhất Đông Nam Á, Cầu Thị Nại (còn có tên khác là cầu Nhơn Hội) dài gần 7 km, bắt qua Đầm Thị Nại, nối liền thành phố Quy Nhơn và bán đảo Phương Mai. Đây cũng là con đường lưu thông chính đến các địa điểm du lịch nổi tiếng như eo gió, kỳ co, hòn khô, trung lương… Cảm giác chạy xe trên cầu với hai bên là đầm nước, xa xa là núi sẽ tạo sự thú vị cho bạn, thậm chí vào buổi chiều khi hoàng hôn buông, bạn còn có thể chiêm ngưỡng một khung cảnh hoàng hôn tuyệt vời.</t>
+  </si>
+  <si>
+    <t>ĐÀN TẾ TRỜI TÂY SƠN</t>
+  </si>
+  <si>
+    <t>Đàn tế trời Tây Sơn là một công trình tâm linh được xây dựng trên núi Ấn Sơn, xã Bình Tường, huyện Tây Sơn – nơi hội tụ linh khí của đất trời, mang ý nghĩ linh thiêng đối với người dân địa phương. Tổng diện tích sử dụng rộng hơn 46 ha, cấu tạo gồm 3 tầng, tầng thứ nhất hình tròn gọi là Viên Đàn, tầng thứ hai hình vuông gọi là Phương Đàn, tầng dưới cùng hình vuông được xây bao quanh bằng tường đá ong có 4 lối vào theo bốn hướng. Ngoài ra, bên phải đàn tế còn có khu Đền Ấn, phía trong là kiến trúc hậu cung, trước cổng là hồ nước hình bán nguyệt. Nhìn chung, với quy mô và kiến trúc đậm chất đất võ, Đàn Tế Trời Tây Sơn là nơi du khách vừa có thể tham quan vừa tưởng niệm 3 vị anh hùng nhà Tây Sơn.</t>
+  </si>
+  <si>
+    <t>KHU DU LỊCH CỬA BIỂN (SEAGATE PARK QUY NHƠN)</t>
+  </si>
+  <si>
+    <t>Được đưa vào hoạt động tháng 04/2018, cửa biển đang là địa điểm du lịch, vui chơi tổng hợp thu hút sự chú ý của nhiều du khách. Mặc dù vẫn đang trong quá trình hoàn thiện, nhưng khu du lịch cũng đã có không ít các trò chơi thú vị như leo núi giả, bắn cung, công viên nước phao nổi, công viên nhún, khu tham quan chụp ảnh,…. Đi đến cuối chân cầu Thị Nại, du khách sẽ thấy một cổng vào có hình dáng tường thành của lâu đài cổ tích – đó là lối vào khu vui chơi giải trí phức hợp này. Đây là một nới lý tưởng để có những trải nghiệm thử thách cho cả gia đình.</t>
+  </si>
+  <si>
+    <t>TỊNH XÁ NGỌC HÒA</t>
+  </si>
+  <si>
+    <t>Nằm sát bên cạnh Eo gió, Tịnh Xá Ngọc Hòa là điểm du lịch tâm linh nổi tiếng với bức tượng Phật Bà Quan Âm cao gần 30m. Đây là tượng Phật đôi, một mặt vàng và một mặt bạc, quay lưng về hai hướng núi và biển, như sự thể hiện cho “rừng vàng biển bạc” phồn thịnh. Thân tượng rỗng, gồm nhiều bậc thang, bên trong là hơn 2000 bức tượng Quan Âm cỡ nhỏ. Các kiến trúc của Tịnh Xá không quá cầu kỳ nhưng vẫn mang lại vẻ uy nghi, linh thiêng của chốn thiền Phật, nó là sự chắc lọc tinh tế từ Tây Tạng, Ấn Độ, Chăm Pa nhưng vẫn mang dáng dấp và cái hồn Việt.</t>
+  </si>
+  <si>
+    <t>LÀNG BÍ ĐAO KHỔNG LỒ</t>
+  </si>
+  <si>
+    <t>Tham quan làng bí đao khổng lồ là một trong những hoạt động thú vị được không ít du khách lựa chọn. Những trái bí đao với kích thước to khoảng 30 – 70kg/1 trái sẽ khiến bạn phải trầm trồ ngạc nhiên. Mỗi vườn bí đao sẽ có khoảng 300m2 giàn bí với gần 100 gốc. Kích thước loại nông sản đặc biệt này có được nhờ vùng đất có thổ nhưỡng kỳ lạ. Tại đây, ba bề là núi bao bọc, hướng mặt ra biển, bên dưới mặt đất sở hữu mạch nước ngầm tốt. Trong quá trình tham quan du khách sẽ được giới thiệu về làng, cách chăm sóc, chụp hình lưu niệm hay mua về. Làng nằm tại xã Mỹ Thọ, huyện Phù Mỹ, Bình Định.</t>
+  </si>
+  <si>
+    <t>MŨI VI RỒNG</t>
+  </si>
+  <si>
+    <t>ĐẦM TRÀ Ổ</t>
+  </si>
+  <si>
+    <t>Với diện tích khoảng 20km, nằm giữa những cánh đồng lớn, núi non nhấp nhô trùng điệp, Đầm Trà Ổ khép mình e thẹn, không ngọt như sông nhưng cũng không mặn như biển. Bên bờ phía đông đầm là những trảng cát trắng bằng phẳng mịn màng, nằm trải dài trên diềm xanh biếc của vùng nước. Tại đây còn có những loài thủy sản đặc sắc mang hương vị riêng không lẫn ở đâu. Sẽ thật đáng tiếc nếu như không thể ghé thăm Đầm Trà Ổ khi đến Bình Định, để được đi xuồng trên mặt đầm óng ánh, như đứng giữa non nước nên thơ cổ tích.</t>
+  </si>
+  <si>
+    <t>LÀNG CHÀI HẢI MINH</t>
+  </si>
+  <si>
+    <t>Hải Minh là một trong những làng chài cá nằm yên bình ở một góc Quy Nhơn. Để đến đây, du khách chỉ cần di chuyển đến cảng cá Quy Nhơn và đi ca nô hoặc thuyền ra làng chài, rất nhanh chóng và dễ dàng. Đi sâu vào bên trong làng sẽ có con đường dẫn lên tượng Trần Hưng Đạo – được xem là “vị thần giữ biển” của Quy Nhơn. Ngoài ra, du khách còn có thể tham quan ngọn hải đăng, tắm biển và dạo bước trên những bãi biển rất ít người nhưng không kém phần xinh đẹp, và cũng có thể tìm hiểu về cuộc sống, nghề chài cá của những người dân vùng biển.</t>
+  </si>
+  <si>
+    <t>NHÀ THỜ LÀNG SÔNG</t>
+  </si>
+  <si>
+    <t>NÚI VŨNG CHUA</t>
+  </si>
+  <si>
+    <t>HỒ NÚI MỘT</t>
+  </si>
+  <si>
+    <t>Nếu có dịp Du lịch Quy Nhơn – Bình Định, bạn nên ghé Hồ Núi Một để trải nghiệm cái cảm giác nhỏ bé giữa thiên nhiên rộng lớn. Hồ ôm trọn một dòng nước ngọt, được bao bọc và che chở bởi đại ngàn hùng vĩ của dãy núi Trường An. Xung quanh hồ là suối thác trắng xóa, rừng nguyên sinh, hang động kết hợp với mặt nước phẳng lặng cực kỳ hoang sơ hấp dẫn. Sẽ không ngoa khi nói đây là một bức tranh thủy mặc hữu tình được vẽ đẹp đến từng chi tiết. Rất nhiều du khách thích thú khi được đi xuồng trên hồ, đắm mình trong thế giới thơ mộng, gạt đi những bộn bề để thấy lòng mình bình lặng hệt như cảnh sắc nơi đây.</t>
+  </si>
+  <si>
+    <t>VŨNG BỒI – ĐỀ GI</t>
+  </si>
+  <si>
+    <t>Được mệnh danh là “Thiên đường ẩn mình” của Bình Định, Vũng Bồi – Đề Gi là một vịnh biển kín với những rừng dương liễu, đê chắn sóng đẹp ngất ngây, bãi cát dài và làn nước xanh mát. Vì là vịnh khép kín nơi nằm cách xa khu dân cư, còn có những mỏm đá nhấp nhô đón sóng vỗ trắng xóa nên vùng này còn hoang sơ và thuần khiết. Tất cả hòa quyện tạo nên khung canh vừa xanh vừa trắng, thanh bình và yên ả, chắc chắn sẽ hút hồn những người tới đây.</t>
+  </si>
+  <si>
+    <t>BIỂN HẢI GIANG</t>
+  </si>
+  <si>
+    <t>LÀNG CHÀI BÃI XÉP</t>
+  </si>
+  <si>
+    <t>KHU TƯỞNG NIỆM NGUYỄN SINH SẮC</t>
+  </si>
+  <si>
+    <t>Khu tưởng niệm Nguyễn Sinh Sắc là một công trình xuôi dòng dịch sử để tưởng nhớ cụ Phó bảng Nguyễn Sinh Sắc khi được triều đình bổ nhiệm chức quan tri huyện tại đây. Khu tưởng niệm gồm các khu vực như đền thờ Nguyễn Sinh Sắc, nhà lưu niệm, nhà Huyện đường Bình Khê phục chế, nhà bia di tích, nhà tiếp khách và bán hàng lưu niệm, nhà vọng cảnh, cột cờ, hồ sen… Hiện tại, nơi này đang lưu giữ những hình ảnh, hiện vật, tài liệu, không gian văn hóa – lịch sử gắn liền với cuộc đời và sự nghiệp của ông. Công trình không chỉ mang ý nghĩa to lớn đối với người dân địa phương mà còn là nơi du khách tứ phương tham quan văn hóa, tưởng nhớ về cụ Nguyễn Sinh Sắc, cũng như một phần cuộc đời con trai cụ – anh hùng Nguyễn Tất Thành.</t>
   </si>
   <si>
     <t>https://vcdn1-dulich.vnecdn.net/2022/06/14/KyCo-1655198784-2371-1655201199.jpg?w=0&amp;h=0&amp;q=100&amp;dpr=2&amp;fit=crop&amp;s=FyBqlrc8Y-Rwvy5HGBYcxg</t>
@@ -111,41 +223,251 @@
     <t>https://static.vinwonders.com/production/chua-thien-hung-banner.jpg</t>
   </si>
   <si>
+    <t>https://thienvienthienhung.com/wp-content/uploads/2019/04/du-lich-chua-thien-hung-binh-dinh-mien-dat-vo-mytour-1.jpg</t>
+  </si>
+  <si>
     <t>https://quynhontourist.com/wp-content/uploads/2020/10/ghenh-rang-tien-sa-quy-nhon-quynhontourist.jpg</t>
   </si>
   <si>
-    <t>BẠN BÈ, BIỂN, BƠI LỘI, CẶP ĐÔI, CÁT, CHỤP ẢNH, DU LỊCH, ĐÁ, ĐẸP,  ĐỊA ĐIỂM, GIA ĐÌNH, HẢI SẢN, HẤP DẪN, KHÓ QUÊN, LÃNG MẠN, LẶN, NGOÀI TRỜI, PHONG CẢNH, SAN HÔ, TOUR, TỰ TÚC, VUI CHƠI</t>
-  </si>
-  <si>
-    <t>BẠN BÈ, BIỂN, BƠI LỘI, CẶP ĐÔI, CÁT, CHỤP ẢNH, DU LỊCH, ĐẸP, ĐỊA ĐIỂM, GIA ĐÌNH , HẤP DẪN, KHÓ QUÊN, NGOÀI TRỜI, NHỘN NHỊP, NỔI TIẾNG, PHONG CẢNH, THIÊN NHIÊN, TOUR, TRẢI NGHIỆM, TỰ TÚC, VUI CHƠI</t>
-  </si>
-  <si>
-    <t>BẠN BÈ, BIỂN, BƠI LỘI, CẶP ĐÔI, CÁT, CHỤP ẢNH, DU LỊCH, ĐÁ, ĐẸP, ĐỊA ĐIỂM, GIA ĐÌNH , HẤP DẪN, KHÓ QUÊN, NGOÀI TRỜI, NHỘN NHỊP, NỔI TIẾNG, PHONG CẢNH, THIÊN NHIÊN, TOUR, TRẢI NGHIỆM, TỰ TÚC, VUI CHƠI</t>
-  </si>
-  <si>
-    <t>BIỂN, BẠN BÈ, BƠI LỘI, CẶP ĐÔI, CÁT, CHỤP ẢNH, DU LỊCH, ĐẸP, ĐỊA ĐIỂM, GIA ĐÌNH, HẤP DẪN, NGOÀI TRỜI, NHỘN NHỊP, NỔI TIẾNG, PHONG CẢNH, THIÊN NHIÊN, TOUR, TRẢI NGHIỆM, TỰ TÚC, VUI CHƠI</t>
-  </si>
-  <si>
-    <t>BIỂN, BƠI LỘI, CHỤP ẢNH, DU LỊCH, ĐẸP, ĐỊA ĐIỂM, GIA ĐÌNH, HẤP DẪN, LỊCH SỬ, NGOÀI TRỜI, NỔI TIẾNG, PHONG CẢNH, THIÊN NHIÊN, TOUR, TRẢI NGHIỆM, VUI CHƠI</t>
-  </si>
-  <si>
-    <t>BẠN BÈ, BÃI CỎ, BÌNH MINH, BÌNH YÊN, CẮM TRẠI, CẶP ĐÔI, CHỤP ẢNH, CUỐI TUẦN, ĐẸP, ĐỊA ĐIỂM, DI CHUYỂN, DU LỊCH, GIA ĐÌNH, HOÀNG HÔN, HOẠT ĐỘNG, HẤP DẪN, NGOÀI TRỜI, NHÓM, PHONG CẢNH, THIÊN NHIÊN, TOUR, TRẢI NGHIỆM, TỰ TÚC, VUI CHƠI</t>
-  </si>
-  <si>
-    <t>CHÙA, ĐẸP, ĐỊA ĐIỂM, DU LỊCH, HẤP DẪN, KIẾN TRÚC, LỊCH SỬ, NỔI TIẾNG, TÂM LINH, THỜ CÚNG, TRUYỀN THỐNG, VĂN HÓA</t>
-  </si>
-  <si>
-    <t>BÍ ẨN, CỔ XƯA, DI TÍCH, ĐẶC BIỆT, ĐẸP, ĐỘC ĐÁO, DU LỊCH, HẤP DẪN, KIẾN TRÚC, LỊCH SỬ, NỔI TIẾNG, PHONG CẢNH, THIÊN NHIÊN</t>
-  </si>
-  <si>
-    <t>ĐẸP, CHÙA, ĐỊA ĐIỂM, ĐỘC ĐÁO, HẤP DẪN, KIẾN TRÚC, LỊCH SỬ, NỔI TIẾNG, TÔN GIÁO, YÊN BÌNH</t>
+    <t>https://quynhonhotel.com/wp-content/uploads/2020/12/lang-phong-quy-hoa-trai-phong-quy-hoa-quy-nhon-hotel.jpg</t>
+  </si>
+  <si>
+    <t>https://quynhonhotel.com/wp-content/uploads/2021/03/thap-doi-quy-nhon-quynhonhotel-4.jpg</t>
+  </si>
+  <si>
+    <t>https://static.vinwonders.com/production/thap-duong-long-banner.jpg</t>
+  </si>
+  <si>
+    <t>https://mia.vn/media/uploads/blog-du-lich/bao-tang-quang-trung-quy-nhon-1703524160.jpg</t>
+  </si>
+  <si>
+    <t>https://quynhonhotel.com/wp-content/uploads/2021/05/kinh-nghiem-du-lich-review-khu-du-lich-ham-ho-quynhonhotel-2.jpg</t>
+  </si>
+  <si>
+    <t>https://scontent.iocvnpt.com/resources/portal//Images/BDH/adminbdh/DiaDiem/quangtruongntt/4_822214770.jpg</t>
+  </si>
+  <si>
+    <t>https://123tadi.com/wp-content/Uploads/2020/10/Nulo/70261871_2265473167046614_781326891276566528_n_optimized.jpg</t>
+  </si>
+  <si>
+    <t>https://www.xuanlocland.vn/uploads/user32/folder6171/1-20.jpg</t>
+  </si>
+  <si>
+    <t>https://image.vietgoing.com/destination/large/vietgoing_qke2104123782.webp</t>
+  </si>
+  <si>
+    <t>https://zoomtravel.vn/upload/images/flc-zoo-safari-quy-nhon-3.jpg</t>
+  </si>
+  <si>
+    <t>https://www.dulichthekymoi.vn/thumbs/1000x0x1/upload/product/khach-san-flc-luxury-quy-nhon-flc-luxury-hotel-quy-nhon-quynhonhotel-37-9620.jpg</t>
+  </si>
+  <si>
+    <t>https://binhdinh.gov.vn/upload/2005340/20210612/7ae78aed8dc1a73df984108906ef05e82_94633471.jpg</t>
+  </si>
+  <si>
+    <t>https://quynhonhotel.com/wp-content/uploads/2020/12/dan-te-troi-dat-tay-son-dai-kinh-thien-quynhonhotel-17.jpg</t>
+  </si>
+  <si>
+    <t>https://quynhontrip.com/wp-content/uploads/2020/10/cua-bien-quy-nhon-4.jpg</t>
+  </si>
+  <si>
+    <t>https://zoomtravel.vn/upload/news/tinh-xa-ngoc-hoa31221.jpg</t>
+  </si>
+  <si>
+    <t>https://khuyennongvn.gov.vn/portals/0/news_images/2021/07/hangweb/bi_khonglo_bdinh.jpg</t>
+  </si>
+  <si>
+    <t>https://media2.gody.vn/public/images/destination/1/52/mui-vi-rong-quy-nhon/pl61825c47dddbb-1635933255.jpeg</t>
+  </si>
+  <si>
+    <t>https://quynhontourist.vn/wp-content/uploads/2020/04/Binh_yen_o_Dam_Tra_O_Binh_Dinh_10.jpg</t>
+  </si>
+  <si>
+    <t>https://static.vinwonders.com/production/lang-chai-hai-minh-banner.jpg</t>
+  </si>
+  <si>
+    <t>https://quynhonhotel.com/wp-content/uploads/2021/03/tieu-chung-vien-lang-song-nha-tho-lang-song-binh-dinh-quynhonhotel.jpg</t>
+  </si>
+  <si>
+    <t>https://static.vinwonders.com/production/nui-vung-chua-1.jpg</t>
+  </si>
+  <si>
+    <t>https://quynhontourist.vn/wp-content/uploads/2018/01/Ho-nui-mot-buc-tranh-son-thuy-tuyet-dep-quynhontourist.jpg</t>
+  </si>
+  <si>
+    <t>https://media.loveitopcdn.com/3426/670d4c8970c59e9bc7d4jpg-4.jpg</t>
+  </si>
+  <si>
+    <t>https://lsvn.vn/storage/uploads/photos/1013/000000001/6225d8368a87c.jpg</t>
+  </si>
+  <si>
+    <t>https://quynhontourist.vn/wp-content/uploads/2017/12/bai-xep-quy-nhon-quynhontourist.jpg</t>
+  </si>
+  <si>
+    <t>https://binhdinh.gov.vn/upload/2005340/20210612/766896cf8dcd261883adc3cf261f4ec71_546787969.jpg</t>
+  </si>
+  <si>
+    <t>Là một trong những địa điểm thu hút du khách du lịch nhất trong những năm gần đây, Kỳ Co được ví như “thiên đường biển” của Bình Định. Nổi bật là dải cát trắng ôm trọn cung biển hình vầng trăng khuyết và những núi đá nhấp nhô hoang sơ, có những núi đá còn kết hợp với nhau tạo thành các hồ nước long lanh. Đến với Kỳ Co du khách sẽ được đắm mình trong làn nước trong vắt và xanh mát, hòa mình với khung cảnh thiên nhiên vừa hùng vĩ vừa lãng mạn nên thơ. Kỳ Co còn là địa điểm thích hợp để tổ chức các trò chơi cho nhóm, teambuilding ngoài trời. Hiện tại, Kỳ co còn phục vụ những dịch vụ biển đa dạng và những điểm để nghỉ ngơi chụp hình.</t>
+  </si>
+  <si>
+    <t>Song song với Kỳ Co, Hòn Khô là một trong những địa điểm lý tưởng để tắm và lặn ngắm san hô. Khung cảnh nơi đây còn khá hoang sơ, nước ở Hòn Khô rất trong và sạch, có một số nơi những rặn san hô chỉ cách mặt nước từ 1-2m, rất thích hợp để lặn ngắm. Ở đây, còn có các hoạt động như lướt mô tô nước, đi thuyền kayak. Một điểm đặc biệt ở Hòn Khô thu hút giới trẻ check-in là con đường gỗ trắng xuôi theo lưng núi cực đẹp. Ngoài ra không thể không nhắc đến con đường xuyên biển độc đáo đủ để làm nao lòng du khách ghé thăm.</t>
+  </si>
+  <si>
+    <t>Có thể nói Eo gió là địa điểm hấp dẫn du khách check-in khi du lịch Quy Nhơn vì nơi đây có con đường ven biển đẹp đến ngỡ ngàng. Như đúng tên gọi của mình, Eo gió có địa hình khá độc đáo, được bao quanh bởi dãy núi đá tự nhiên tạo nên một vòng eo lộng gió với một mặt là núi một mặt là biển. Sau khi được khai thác lại, eo gió có thêm một con đường chạy dọc theo vòng eo này. Đường nằm ở lưng chừng núi, uốn mình theo độ cong lưng núi, được xây dựng chắc chắn với tay vịn gỗ đầy chất vintage vô cùng đẹp mắt, hệt như dải lụa mềm mại giữa thiên đường.</t>
+  </si>
+  <si>
+    <t>Cù Lao Xanh là một mảng thiên nhiên tươi đẹp mà tạo hóa ban tặng cho mảnh đất võ Bình Định. Thường được gọi là “Hòn ngọc ngủ quên”, Cù Lao Xanh nằm giữa vùng biển mênh mông trong vắt, được bao phủ bởi những tán cây xanh ngát và bờ cát trắng mịn màng. Du khách sẽ cảm nhận được không khí trời đất, giản dị và tự nhiên khi đến với nơi đây.</t>
+  </si>
+  <si>
+    <t>Chùa Ông Núi (hay còn gọi là chùa Linh Phong) là một địa điểm nổi tiếng với bức tượng Phật ngồi trên đỉnh núi. Vì độ to lớn của bức tượng mà đi từ xa du khách đã có thể nhìn thấy nó, thoạt nhìn như một vị Phật ngồi giữa mây trời. Đến gần du khách sẽ được chiêm ngưỡng kĩ hơn sự kì công của bức tượng Phật trên đài sen này.</t>
+  </si>
+  <si>
+    <t>Tháp Bánh Ít là cụm tháp gồm 4 tòa tháp kết hợp với nhau, nằm trên một ngọn núi cách mặt nước biển 100m. Nhìn từ xa, các tòa tháp tựa hình dạng của chiếc bánh ít – một đặc sản của Bình Định. Nhiều người đánh giá Tháp Bánh Ít mang những nét kiến trúc phong phú và đa dạng nhất, nó là sự giao hòa đường nét và điêu khắc của nghệ thuật Chăm kết hợp với tính riêng của miền đất võ. Quần thể có một tháp chính cao tầm 20m ở trung tâm đồi và 3 tháp nhỏ xung quanh, mặt tháp hướng về phía Đông. Đường lên đồi là những bậc thang hệt như đang bước lên cổng trời. Đến với tháp Bánh Ít để cảm nhận được nét văn hóa đầy độc đáo.</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM TRẢI_NGHIỆM HOẠT_ĐỘNG BẢO_TỒN ĐỘNG_VẬT THIÊN_NHIÊN BÃI_CỎ ĐÁ ĐẸP CHỤP_ẢNH TRẺ_EM GIA_ĐÌNH ĐI_BỘ</t>
+  </si>
+  <si>
+    <t>Là một quần thể du lịch nghỉ dưỡng sinh thái, FLC Resort đã và đang nhận được đánh giá rất tốt từ nhiều du khách bởi phong cách chuyên nghiệp, thiết kế đẹp. Bạn có thể chọn Resort làm điểm lưu trú khi du lịch Quy Nhơn hoặc chỉ tham quan với giá vé 75.000/1 người cho đi bộ và 175.000/ 1 người cho đi xe điện. Diện tích resort rất rộng vơi hơn 1.300 ha ôm trọn thắng cảnh eo gió.</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM DU_LỊCH NGHỈ_DƯỠNG PHONG_CẢNH THIÊN_NHIÊN THƯ_GIÃN TRẢI_NGHIỆM RESORT CAO_CẤP BIỂN BƠI_LỘI</t>
+  </si>
+  <si>
+    <t>Cũ mà không cũ chính là những từ dành cho khu du lịch này. Dù đã đưa vào hoạt động khá lâu, nhưng đến nay Ghềnh Ráng – Tiên Sa vẫn thu hút không ít khách du lịch bởi nét riêng của nó. Một số địa điểm nổi bật của khu du lịch này là Bãi tắm Hoàng Hậu (hay còn gọi là Bãi Trứng) với những khối đá to tròn độc đáo san sát nhau chạy dọc bờ biển xanh, ngôi mộ của thi sĩ Hàn Mạc Tử với những kỷ vật và câu chuyện về cuộc đời ông. Ngoài ra, Ghềnh ráng còn có những khu vực, khu chòi thích hợp để tổ chức picnic, khu trò chơi dân gian, nhà thờ trắng cực đẹp,… Có thể nói là có khá nhiều thứ để du khách có thể khám phá khi đến đây.</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM DU_LỊCH HẤP_DẪN CỘNG_ĐỒNG ĐẶC_BIỆT ĐỘC_ĐÁO ĐÁ BIỂN CỔ_XƯA VĂN_HÓA DI_TÍCH DI_SẢN LỊCH_SỬ NGHỆ_THUẬT CẮM_TRẠI NGOÀI_TRỜI DÂN_GIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỊA_ĐIỂM YÊN_BÌNH THƯ_GIÃN NGOẠI_Ô THÀNH_PHỐ VĂN_HÓA NGHỆ_THUẬT DI_TÍCH DI_SẢN NGHỆ_THUẬT NGOÀI_TRỜI TRẢII_NGHIỆM BẠN_BÈ </t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM DU_LỊCH BIỂN BƠI_LỘI LẶN SAN_HÔ PHONG_CẢNH HOANG_SƠ VUI_CHƠI THUYỀN CHỤP_ẢNH HẤP_DẪN GIA_ĐÌNH BẠN_BÈ</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM DU_LỊCH BIỂN SAN_HÔ BƠI_LỘI CÁT ĐÁ HOANG_SƠ HÙNG_VĨ NGOÀI_TRỜI VUI_CHƠI THƯ_GIÃN CHỤP_ẢNH ĐẸP PHONG_CẢNH BẠN_BÈ GIA_ĐÌNH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỊA_ĐIỂM HẤP_DẪN DU_LỊCH PHONG_CẢNH CHỤP_ẢNH ĐẸP CON_ĐƯỜNG ĐỘC_ĐÁO NÚI ĐÁ THIÊN_NHIÊN GIA_ĐÌNH BẠN_BÈ </t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM THIÊN_NHIÊN ĐẸP THƯ_GIÃN PHONG_CẢNH HOANG_SƠ YÊN_BÌNH CHỤP_ẢNH GIA_ĐÌNH BẠN_BÈ</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM PHONG_CẢNH ĐẸP HẤP_ DẪN BÃI_CỎ THIÊN_NHIÊN NÚI ĐÁ LÃNG_MẠN YÊN_BÌNH CẮM_TRẠI NGOÀI_TRỜI HOÀNG_HÔN GIA_ĐÌNH BẠN_BÈ</t>
+  </si>
+  <si>
+    <t>CHÙA TÔN_GIÁO TÂM_LINH NỔI_TIẾNG KIẾN_TRÚC HÙNG_VĨ TRẢI_NGHIỆM ĐỘC_ĐÁO ĐẶC_BIỆT GIA_ĐÌNH BẠN_BÈ</t>
+  </si>
+  <si>
+    <t>KIẾN_TRÚC LỊCH_SỬ ĐỘC_ĐÁO ĐẶC_BIỆT ĐẶC_SẢN VĂN_HÓA GIA_ĐÌNH BẠN_BÈ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHÙA TÔN_GIÁO TÂM_LINH NỔI_TIẾNG KIẾN_TRÚC ĐỘC_ĐÁO ĐẶC_BIỆT HẤP_DẪN CỔ_XƯA TRUYỀN_THỐNG GIA_ĐÌNH </t>
+  </si>
+  <si>
+    <t>KIẾN_TRÚC ĐỘC_ĐÁO ĐẶC_BIỆT TÂM_LINH HẤP_DẪN BÃI_CỎ THIÊN_NHIÊN CON_ĐƯỜNG ĐÁ TÔN_GIÁO YÊN_BÌNH CỔ_XƯA GIA_ĐÌNH</t>
+  </si>
+  <si>
+    <t>Nằm ngay trong thành phố Quy Nhơn, du khách có thể dễ dàng di chuyển đến Tháp Đôi để chiêm ngưỡng kiến trúc còn sót lại của văn hóa Chăm Pa. Tháp đôi bao gồm hai toà tháp nằm kề nhau gọi là Tháp Nam và Tháp Bắc. Dù trải qua thời gian dài nhưng công trình này vẫn còn nang hơi thở cổ xưa và độc đáo từ kiến trúc tổng thể đến từng đường nét, hoa văn, màu gạch của người Chăm. Dù là nằm trong lòng thành phố như Tháp Đôi vẫn còn đó không khí xưa cũ huyền diệu giữa không gian hiện đại.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỊA_ĐIỂM DU_LỊCH THÀNH_PHỐ TRẢI_NGHIỆM THƯỞNG_THỨC KIẾN_TRÚC ĐỘC_ĐÁO ĐẶC_BIỆT CỔ_XƯA TRUYỀN_THỐNG LỊCH_SỬ DI_TÍCH GIA_ĐÌNH </t>
+  </si>
+  <si>
+    <t>Không phải là một địa điểm quá nổi tiếng với du khách, tuy nhiên, nếu có thời gian bạn nên ghé bảo tàng Quang Trung để có thể hiểu rõ hơn về vị vua Quang Trung – Nguyễn Huệ nổi tiếng một thời của đất nước, cũng như lịch sử của thời đại Tây Sơn kiêu hùng. Bảo tàng hiện lưu giữ lại những hiện vật cùng thông tin khá chi tiết về thời đại này. Đây là một địa điểm không thể bỏ qua cho một chuyến du lịch văn hóa, tìm về cội nguồn. Tại đây, bạn còn có thể tham gia thưởng thức ca múa trống trận, múa võ,…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỊA_ĐIỂM DU_LỊCH BẢO_TÀNG TRẢI_NGHIỆM LỊCH_SỬ DI_TÍCH DI_SẢN VĂN_HÓA THƯỞNG_THỨC BIỂU_DIỄN TRUYỀN_THỐNG SỰ_KIỆN LỄ_HỘI GIA_ĐÌNH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỊA_ĐIỂM DU_LỊCH THIÊN_NHIÊN PHONG_CẢNH HOANG_SƠ HÙNG_VĨ BÍ_ẨN HẤP_DẪN LÃNG_MẠN ĐÁ ĐỘC_ĐÁO ĐẶC_BIỆT </t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM DU_LỊCH HOẠT_ĐỘNG QUẢNG_TRƯỜNG THÀNH_PHỐ NHỘN_NHỊP VUI_CHƠI TRẺ_EM THƯ_GIÁN ĐI_BỘ LỄ_HỘI SỰ_KIỆN BIỂU_DIỄN ĐẶC_BIỆT</t>
+  </si>
+  <si>
+    <t>Tuy chỉ là một quán cafe ven biển nhưng từ khi được xây dựng đến nay, Surf Bar đã trở thành một trong những địa điểm không thể bỏ qua khi du lịch Quy Nhơn. Với không gian rộng thoáng, được thiết kế như một góc trời Tây lãng mạn, nhẹ nhàng trên bờ cát, du khách sẽ có những giây phút thư giãn, vừa thưởng thức cafe vừa hòa mình với gió biển, nghe sóng vỗ rì rào. Quán được bài trí đơn giản với một quầy bar bằng gỗ, menu nước uống đa dạng, xung quanh là bàn ghế gỗ đơn giản, cổng vào bắt mắt. Tuy đơn giản nhưng mỗi góc đều rất đẹp và thoáng đãng, về đêm lại lung linh ánh đèn như một bữa tiệc ngoài trời. Được bình chọn là quán cafe đẹp nhất Quy Nhơn, Surf Bar chắc chắn sẽ làm bạn hài lòng.</t>
+  </si>
+  <si>
+    <t>CÀ_PHÊ BIỂN NGOÀI_TRỜI ĐỘC_ĐÁO ĐẶC_BIỆT THƯỞNG_THỨC PHONG_CẢNH LÃNG_MẠN THƯ_GIÃN HOÀNG_HÔN GIA_ĐÌNH BẠN_BÈ</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM ĐI_BỘ HOẠT_ĐỘNG BÌNH_MINH HOÀNG_HÔN CHỤP_ẢNH THƯ_GIÃN ĐÊM NHỘN_NHỊP</t>
+  </si>
+  <si>
+    <t>Dù không lớn và hùng vĩ như Bàu Trắng – Bình Thuận, nhưng đồi cát Phương Mai vẫn được xem là một bức tranh cát khổng lồ đầy mê hoặc tựa như một tiểu sa mạc, xứng đáng để du khách ghé thăm khi đến Quy Nhơn.</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM CÁT HÙNG_VĨ HOANG_SƠ HẤP_DẪN TRẢI_NGHIỆM NGOẠI_Ô</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM NỔI_TIẾNG ĐỘC_ĐÁO ĐẶC_BIỆT HÙNG_VĨ CON_ĐƯỜNG THÀNH_PHỐ HÒN_ĐẢO PHƯỢT THƯỞNG_THỨC PHONG_CẢNH HOÀNG_HÔN ĐẸP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIẾN_TRÚC TÂM_LINH NÚI TRẢI_NGHIỆM VĂN_HÓA TRUYỀN_THỐNG LỊCH_SỬ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỊA_ĐIỂM DU_LỊCH VUI_CHƠI HẤP_DẪN CỘNG_ĐỒNG HOẠT_ĐỘNG NGOÀI_TRỜI TRẢI_NGHIỆM CHỤP_ẢNH BƠI_LỘI THỂ_THAO GIA_ĐÌNH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỊA_ĐIỂM DU_LỊCH TÂM_LINH NỔI_TIẾNG NÚI BIỂN KIẾN_TRÚC VĂN_HÓA NGHỆ_THUẬT DÂN_GIAN TÔN_GIÁO TRUYỀN_THỐNG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRẢI_NGHIỆM LÀNG ĐỘC_ĐÁO ĐẶC_BIỆT HẤP_DẪN HOẠT_ĐỘNG NÚI BIỂN CHỤP_ẢNH NGOẠI_Ô THIÊN_NHIÊN PHONG_CẢNH </t>
+  </si>
+  <si>
+    <t>Mũi Vi Rồng hay còn gọi là Mũi Rồng nằm khá xa trung tâm thành phố (hơn 70km), tuy nhiên, bạn sẽ không hối hận khi quyết định khám phá long mạch chốn nhân gian này. Nhìn từ xa, Mũi Vĩ Rồng có hình dáng của một con rồng được thiên nhiên chạm trổ và điêu khắc thành, đây chính là một tuyệt tác của tự nhiên.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỊA_ĐIỂM NGOẠI_Ô TRẢI_NGHIỆM HOẠT_ĐỘNG BÍ_ẨN HÙNG_VĨ MẠO_HIỂM THIÊN_NHIÊN NÚI THỂ_THAO </t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM DU_LỊCH BIỂN BƠI_LỘI HẤP_DẪN RIÊNG_TƯ HOANG_SƠ LÀNG_CHÀI YÊN_BÌNH THUYỀN CON_ĐƯỜNG TÂM_LINH TRẢI_NGHIỆM LỊCH_SỬ TRUYỀN_THỐNG</t>
+  </si>
+  <si>
+    <t>Nhà thờ Làng Sông là một nhà thờ cổ mang hơi thở mộc mạc, trầm mặc của năm tháng. Đi từ thành phố Quy Nhơn khoảng 20km, băng qua những đoạn đường quê thơm ngát hương lúa, nhà thờ hiện lên giữa những tán cây cao hàng trăm tuổi. Kiến trúc nhà thờ là sự duyên dáng của phong cách Gothic, sự cổ kính của từng đường nét, sự thoáng đãng của khuôn viên, sự uy nghiêm của những dãy hành lang với nét chạm khắc trên tường, trên cửa và sự tĩnh lặng của những dãy nhà phủ đầy rêu phong. Không chỉ thu hút nhiều du khách, nhà thờ Làng Sông còn là cảm hứng của không ít các nhiếp ảnh gia khi đến mảnh đất miền trung này.</t>
+  </si>
+  <si>
+    <t>Du lịch Quy Nhơn đâu chỉ có biển. Quy Nhơn còn có ba ngọn núi nổi tiếng là núi Bà Hỏa, núi Xuân Vân, núi Vũng Chua. Trong đó, núi Vũng chua là một địa điểm thích hợp cho những trải nghiệm leo núi không quá khó khăn nguy hiểm như cũng không kém phần hoang dã, hấp dẫn. Đường lên núi Vũng Chua bạn có thể lựa chọn đi xe máy hoặc đi bộ, du khách sẽ được thả mình trên những con dốc, những khúc cua tuyệt đẹp.</t>
+  </si>
+  <si>
+    <t>ĐỊA ĐIỂM NÚI LEO_NÚI THỂ_THAO HOẠT_ĐỘNG MẠO_HIỂM HOANG_DÃ HẤP_DẪN CHỤP_ẢNH TRẢI_NGHIỆM PHONG_CẢNH THÀNH_PHỐ BẠN_BÈ</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM ĐỀN_THỜ TÂM_LINH CỔ_XƯA KIẾN_TRÚC ĐỘC_ĐÁO ĐẶC_BIỆT TRẢI_NGHIỆM VĂN_HÓA NGHỆ_THUẬT CHỤP_ẢNH GIA_ĐÌNH BẠN_BÈ</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM HÙNG_VĨ NÚI CÁT HẢI_SẢN ĐẶC_BIỆT ĐỘC_ĐÁO KHÓ_QUÊN TRẢI_NGHIỆM HOẠT_ĐỘNG THUYỀN LÃNG_MẠN GIA_ĐÌNH CẶP_ĐÔI</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM DU_LỊCH THIÊN_NHIÊN HÙNG_VĨ SUỐI THÁC_NƯỚC HOANG_SƠ HẤP_DẪN LÃNG_MẠN THUYỀN THƯ_GIÃN YÊN_BÌNH CHỤP_ẢNH BẠN_BÈ</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM DU_LỊCH BIỂN BÍ_ẨN HOANG_SƠ CÁT PHONG_CẢNH YÊN_BÌNH THƯ_GIÃN TRẢI_NGHIỆM CHỤP_ẢNH BẠN_BÈ CẶP_ĐÔI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỊA_ĐIỂM DI_TÍCH DI_SẢN LỊCH_SỬ TRUYỀN_THỐNG CỔ_XƯA ĐỀN_THỜ VĂN_HÓA TRẢI_NGHIỆM </t>
+  </si>
+  <si>
+    <t>Bãi Xép nằm trong 16 điểm ở Châu Á được trang Business Insider đánh giá là “hòn ngọc bí ẩn” với tiềm năng phát triển du lịch. Đây là một làng chài nhỏ cách thành phố Quy Nhơn hơn 10km, mang vẻ mộc mạc hấp dẫn của thiên nhiên, thanh bình của một làng chài truyền thống và hoang sơ của nắng gió miền Trung. Tuy không nhộn nhịp như những điểm du lịch khác nhưng Làng Chài Bãi Xép đáng để du khách thưởng thức, không chỉ bởi bờ cát vàng lung linh, màu biển xanh ngắt hay những tảng đá nguyên sơ kỳ thú mà còn là những trải nghiệm thú vị như đi thúng trên biển, lặn bắt tôm ốc và cả một homestay siêu chất lừ. Là một trong những bãi biển đẹp nhất Quy Nhơn, nơi đây cũng là địa điểm lý tưởng để ngắm hoàng hôn trên biển đẹp ngất ngây.</t>
+  </si>
+  <si>
+    <t>ĐỊA_ĐIỂM DU_LỊCH BIỂN CÁT ĐÁ BƠI_LỘI LÀNG_CHÀI NGOẠI_Ô HOANG_SƠ HẤP_DẪN THIÊN_NHIÊN YÊN_BÌNH TRUYỀN_THỐNG THƯỞNG_THỨC TRẢI_NGHIỆM HOẠT_ĐỘNG PHONG_CẢNH HOÀNG_HÔN ĐẸP</t>
+  </si>
+  <si>
+    <t>Nằm tựa lưng bên những vách núi cao và phía trước mặt là biển xanh, Hải Giang giống như một ốc đảo kỳ bí lọt thỏm giữa thiên nhiên hùng vĩ. Chỉ rộng 120 ha nhưng biển Hải Giang đủ đẹp để làm say lòng bất cứ ai. Đến với Hải Giang là đến với những giờ phút thư giãn, tránh xa náo nhiệt của cuộc sống ngoài kia. Du khách sẽ được quyện mình trong không khi yên ả của những người dân nơi đây, thỏa sức vẫy vùng trong làn nước xanh, phơi mình trên bãi cát vàng, lặn ngắm thế giới dưới mặt nước hay mua hải sản từ người dân và trải nghiệm tự mình chuẩn bị một bữa tiệc nướng ngoài trời dân dã.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐỊA_ĐIỂM PHONG_CẢNH NÚI BIỂN HÒN_ĐẢO BÍ_ẨN THIÊN_NHIÊN HÙNG_VĨ HẤP_DẪN THƯ_GIÃN YÊN_BÌNH BƠI_LỘI LẶN HẢI_SẢN TRẢI NGHIỆM CẮM_TRẠI NGOÀI_TRỜI  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +480,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,10 +539,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -219,8 +556,11 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,22 +860,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.23046875" customWidth="1"/>
+    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="3" max="3" width="123.765625" customWidth="1"/>
+    <col min="4" max="4" width="22.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,242 +889,514 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="5"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="5"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="5"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="5"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="5"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="5"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="5"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="5"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="5"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="5"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="5"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="5"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="5"/>
-      <c r="D37" s="3"/>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{4B3BF609-731C-41A3-BFB2-9C4B107927DE}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>